--- a/stats/analysis/batting_trophies.xlsx
+++ b/stats/analysis/batting_trophies.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\plough\stats\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F1BCA3-8AA1-496C-9955-651AB1941CA5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9593296-3EAE-4F55-A7C2-03B903C5E791}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19305" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="15360" windowHeight="7020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Batting - 2018" sheetId="4" r:id="rId1"/>
-    <sheet name="Batting - 2017" sheetId="1" r:id="rId2"/>
-    <sheet name="Batting - 2016" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary" sheetId="9" r:id="rId1"/>
+    <sheet name="Batting - 2018" sheetId="4" r:id="rId2"/>
+    <sheet name="Batting - 2017" sheetId="1" r:id="rId3"/>
+    <sheet name="Batting - 2016" sheetId="3" r:id="rId4"/>
+    <sheet name="Batting - 2015" sheetId="5" r:id="rId5"/>
+    <sheet name="Batting - 2014" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Batting - 2016'!$A$2:$K$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Batting - 2017'!$A$2:$K$73</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Batting - 2018'!$A$2:$J$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Batting - 2014'!$A$2:$J$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Batting - 2015'!$A$2:$J$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Batting - 2016'!$A$2:$K$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Batting - 2017'!$A$2:$K$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Batting - 2018'!$A$2:$J$54</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,15 +38,12 @@
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="284">
   <si>
     <t>First name</t>
   </si>
@@ -637,15 +640,284 @@
   </si>
   <si>
     <t>Total qualified</t>
+  </si>
+  <si>
+    <t>A Barraclough</t>
+  </si>
+  <si>
+    <t>E Beasley</t>
+  </si>
+  <si>
+    <t>J Bell</t>
+  </si>
+  <si>
+    <t>A Boyd</t>
+  </si>
+  <si>
+    <t>D Brennan</t>
+  </si>
+  <si>
+    <t>S Britto</t>
+  </si>
+  <si>
+    <t>R Buckley</t>
+  </si>
+  <si>
+    <t>A Burriel</t>
+  </si>
+  <si>
+    <t>R Byrne</t>
+  </si>
+  <si>
+    <t>C Carline</t>
+  </si>
+  <si>
+    <t>C Carson</t>
+  </si>
+  <si>
+    <t>S Carson</t>
+  </si>
+  <si>
+    <t>K Chau</t>
+  </si>
+  <si>
+    <t>D Conway</t>
+  </si>
+  <si>
+    <t>R Cox</t>
+  </si>
+  <si>
+    <t>H Davies</t>
+  </si>
+  <si>
+    <t>J Davies</t>
+  </si>
+  <si>
+    <t>N Dowell</t>
+  </si>
+  <si>
+    <t>P Gledhill</t>
+  </si>
+  <si>
+    <t>B Glover</t>
+  </si>
+  <si>
+    <t>J Green</t>
+  </si>
+  <si>
+    <t>J Harris</t>
+  </si>
+  <si>
+    <t>C Hey</t>
+  </si>
+  <si>
+    <t>S Hoskin</t>
+  </si>
+  <si>
+    <t>P Hynes</t>
+  </si>
+  <si>
+    <t>J Jackson</t>
+  </si>
+  <si>
+    <t>T James</t>
+  </si>
+  <si>
+    <t>R Keogh</t>
+  </si>
+  <si>
+    <t>N Khan</t>
+  </si>
+  <si>
+    <t>D Kingston</t>
+  </si>
+  <si>
+    <t>C Lilfort</t>
+  </si>
+  <si>
+    <t>T Lockhart</t>
+  </si>
+  <si>
+    <t>T Lonnen</t>
+  </si>
+  <si>
+    <t>C Maclaren</t>
+  </si>
+  <si>
+    <t>H Madley</t>
+  </si>
+  <si>
+    <t>B McGhee</t>
+  </si>
+  <si>
+    <t>F Mills</t>
+  </si>
+  <si>
+    <t>A Morgan</t>
+  </si>
+  <si>
+    <t>? Murphy</t>
+  </si>
+  <si>
+    <t>R Nair</t>
+  </si>
+  <si>
+    <t>A Nicholls</t>
+  </si>
+  <si>
+    <t>C Ovens</t>
+  </si>
+  <si>
+    <t>T Oxenham</t>
+  </si>
+  <si>
+    <t>L Parks</t>
+  </si>
+  <si>
+    <t>H Parnell</t>
+  </si>
+  <si>
+    <t>A Paul</t>
+  </si>
+  <si>
+    <t>D Pretorius</t>
+  </si>
+  <si>
+    <t>I Reham</t>
+  </si>
+  <si>
+    <t>R Richardson</t>
+  </si>
+  <si>
+    <t>M Ridgway</t>
+  </si>
+  <si>
+    <t>N Ridgway</t>
+  </si>
+  <si>
+    <t>N Stephenson</t>
+  </si>
+  <si>
+    <t>A Stewart</t>
+  </si>
+  <si>
+    <t>? Sullivan</t>
+  </si>
+  <si>
+    <t>R Turner</t>
+  </si>
+  <si>
+    <t>H Webster</t>
+  </si>
+  <si>
+    <t>M Whiting</t>
+  </si>
+  <si>
+    <t>G Wolledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>M Ashton</t>
+  </si>
+  <si>
+    <t>R Barraclough</t>
+  </si>
+  <si>
+    <t>A Barrass</t>
+  </si>
+  <si>
+    <t>M Callanan</t>
+  </si>
+  <si>
+    <t>H Dowell</t>
+  </si>
+  <si>
+    <t>L Gray</t>
+  </si>
+  <si>
+    <t>S Hamer</t>
+  </si>
+  <si>
+    <t>L Jackson</t>
+  </si>
+  <si>
+    <t>A Jones</t>
+  </si>
+  <si>
+    <t>G Jones</t>
+  </si>
+  <si>
+    <t>A Kumar</t>
+  </si>
+  <si>
+    <t>M Magill</t>
+  </si>
+  <si>
+    <t>Z O'Sullivan</t>
+  </si>
+  <si>
+    <t>A Pizii</t>
+  </si>
+  <si>
+    <t>H Rose</t>
+  </si>
+  <si>
+    <t>R Srivastava</t>
+  </si>
+  <si>
+    <t>B Stinson</t>
+  </si>
+  <si>
+    <t>S Swaminathan</t>
+  </si>
+  <si>
+    <t>A Titley</t>
+  </si>
+  <si>
+    <t>V Yadab</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Qualifiers per year based on min matches / min runs</t>
+  </si>
+  <si>
+    <t>10m, 150r</t>
+  </si>
+  <si>
+    <t>10m, 200r</t>
+  </si>
+  <si>
+    <t>10m, 250r</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -660,6 +932,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -682,44 +969,107 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3B50E9C7-E217-4A22-B3C2-26F56F9A1E4C}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{995AB960-BF1A-4B75-826D-77F10459D1B7}"/>
+    <cellStyle name="Percent 2" xfId="2" xr:uid="{7A56BEA9-A292-47D7-8D9C-5E91352D6AE3}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1055,11 +1405,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE849FD0-B096-4D3E-B6AC-9EA32322BC32}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="11.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="15">
+        <v>8</v>
+      </c>
+      <c r="C4" s="15">
+        <v>8</v>
+      </c>
+      <c r="D4" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="15">
+        <v>10</v>
+      </c>
+      <c r="C5" s="15">
+        <v>9</v>
+      </c>
+      <c r="D5" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="15">
+        <v>10</v>
+      </c>
+      <c r="C6" s="15">
+        <v>9</v>
+      </c>
+      <c r="D6" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="15">
+        <v>12</v>
+      </c>
+      <c r="C7" s="15">
+        <v>9</v>
+      </c>
+      <c r="D7" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>2014</v>
+      </c>
+      <c r="B8" s="15">
+        <v>10</v>
+      </c>
+      <c r="C8" s="15">
+        <v>9</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="17">
+        <f>AVERAGE(B4:B8)</f>
+        <v>10</v>
+      </c>
+      <c r="C9" s="17">
+        <f t="shared" ref="C9:D9" si="0">AVERAGE(C4:C8)</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J1" s="3"/>
     </row>
@@ -1143,15 +1620,15 @@
         <v>177</v>
       </c>
       <c r="H3" s="2" t="b">
-        <f>B3&gt;=$H$1</f>
+        <f t="shared" ref="H3:H34" si="0">B3&gt;=$H$1</f>
         <v>0</v>
       </c>
       <c r="I3" s="2" t="b">
-        <f>E3&gt;=$I$1</f>
+        <f t="shared" ref="I3:I34" si="1">E3&gt;=$I$1</f>
         <v>0</v>
       </c>
       <c r="J3" s="2" t="b">
-        <f t="shared" ref="J3:J34" si="0">AND(H3,I3)</f>
+        <f t="shared" ref="J3:J34" si="2">AND(H3,I3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1175,15 +1652,15 @@
         <v>177</v>
       </c>
       <c r="H4" s="2" t="b">
-        <f>B4&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="2" t="b">
-        <f>E4&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1207,15 +1684,15 @@
         <v>177</v>
       </c>
       <c r="H5" s="2" t="b">
-        <f>B5&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="2" t="b">
-        <f>E5&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1239,15 +1716,15 @@
         <v>46.56</v>
       </c>
       <c r="H6" s="2" t="b">
-        <f>B6&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I6" s="2" t="b">
-        <f>E6&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J6" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1271,15 +1748,15 @@
         <v>46.12</v>
       </c>
       <c r="H7" s="2" t="b">
-        <f>B7&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I7" s="2" t="b">
-        <f>E7&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J7" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1303,15 +1780,15 @@
         <v>45.5</v>
       </c>
       <c r="H8" s="2" t="b">
-        <f>B8&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I8" s="2" t="b">
-        <f>E8&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J8" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1335,15 +1812,15 @@
         <v>44</v>
       </c>
       <c r="H9" s="2" t="b">
-        <f>B9&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="2" t="b">
-        <f>E9&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1367,15 +1844,15 @@
         <v>40.5</v>
       </c>
       <c r="H10" s="2" t="b">
-        <f>B10&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I10" s="2" t="b">
-        <f>E10&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J10" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1399,15 +1876,15 @@
         <v>36.75</v>
       </c>
       <c r="H11" s="2" t="b">
-        <f>B11&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I11" s="2" t="b">
-        <f>E11&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1431,15 +1908,15 @@
         <v>33.75</v>
       </c>
       <c r="H12" s="2" t="b">
-        <f>B12&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="2" t="b">
-        <f>E12&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1463,15 +1940,15 @@
         <v>31.71</v>
       </c>
       <c r="H13" s="2" t="b">
-        <f>B13&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I13" s="2" t="b">
-        <f>E13&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J13" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1495,15 +1972,15 @@
         <v>31.67</v>
       </c>
       <c r="H14" s="2" t="b">
-        <f>B14&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="2" t="b">
-        <f>E14&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1527,15 +2004,15 @@
         <v>31.15</v>
       </c>
       <c r="H15" s="2" t="b">
-        <f>B15&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I15" s="2" t="b">
-        <f>E15&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J15" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1559,15 +2036,15 @@
         <v>29.57</v>
       </c>
       <c r="H16" s="2" t="b">
-        <f>B16&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="2" t="b">
-        <f>E16&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J16" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1591,15 +2068,15 @@
         <v>24</v>
       </c>
       <c r="H17" s="2" t="b">
-        <f>B17&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="2" t="b">
-        <f>E17&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1623,15 +2100,15 @@
         <v>21.75</v>
       </c>
       <c r="H18" s="2" t="b">
-        <f>B18&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="2" t="b">
-        <f>E18&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1655,15 +2132,15 @@
         <v>21.07</v>
       </c>
       <c r="H19" s="2" t="b">
-        <f>B19&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I19" s="2" t="b">
-        <f>E19&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J19" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1687,15 +2164,15 @@
         <v>20.91</v>
       </c>
       <c r="H20" s="2" t="b">
-        <f>B20&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I20" s="2" t="b">
-        <f>E20&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J20" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1719,15 +2196,15 @@
         <v>20.329999999999998</v>
       </c>
       <c r="H21" s="2" t="b">
-        <f>B21&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="2" t="b">
-        <f>E21&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1751,15 +2228,15 @@
         <v>20</v>
       </c>
       <c r="H22" s="2" t="b">
-        <f>B22&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="2" t="b">
-        <f>E22&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1783,15 +2260,15 @@
         <v>17.88</v>
       </c>
       <c r="H23" s="2" t="b">
-        <f>B23&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I23" s="2" t="b">
-        <f>E23&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1815,15 +2292,15 @@
         <v>17</v>
       </c>
       <c r="H24" s="2" t="b">
-        <f>B24&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="2" t="b">
-        <f>E24&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1847,15 +2324,15 @@
         <v>16</v>
       </c>
       <c r="H25" s="2" t="b">
-        <f>B25&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="2" t="b">
-        <f>E25&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1879,15 +2356,15 @@
         <v>12.9</v>
       </c>
       <c r="H26" s="2" t="b">
-        <f>B26&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I26" s="2" t="b">
-        <f>E26&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1911,15 +2388,15 @@
         <v>12.67</v>
       </c>
       <c r="H27" s="2" t="b">
-        <f>B27&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="2" t="b">
-        <f>E27&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1943,15 +2420,15 @@
         <v>11.55</v>
       </c>
       <c r="H28" s="2" t="b">
-        <f>B28&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I28" s="2" t="b">
-        <f>E28&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1975,15 +2452,15 @@
         <v>11</v>
       </c>
       <c r="H29" s="2" t="b">
-        <f>B29&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I29" s="2" t="b">
-        <f>E29&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J29" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2007,15 +2484,15 @@
         <v>11</v>
       </c>
       <c r="H30" s="2" t="b">
-        <f>B30&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30" s="2" t="b">
-        <f>E30&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J30" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2039,15 +2516,15 @@
         <v>10.5</v>
       </c>
       <c r="H31" s="2" t="b">
-        <f>B31&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I31" s="2" t="b">
-        <f>E31&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2071,15 +2548,15 @@
         <v>10.38</v>
       </c>
       <c r="H32" s="2" t="b">
-        <f>B32&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I32" s="2" t="b">
-        <f>E32&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J32" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2103,15 +2580,15 @@
         <v>9.3800000000000008</v>
       </c>
       <c r="H33" s="2" t="b">
-        <f>B33&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I33" s="2" t="b">
-        <f>E33&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J33" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2135,15 +2612,15 @@
         <v>9</v>
       </c>
       <c r="H34" s="2" t="b">
-        <f>B34&gt;=$H$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I34" s="2" t="b">
-        <f>E34&gt;=$I$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J34" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2167,15 +2644,15 @@
         <v>9</v>
       </c>
       <c r="H35" s="2" t="b">
-        <f>B35&gt;=$H$1</f>
+        <f t="shared" ref="H35:H54" si="3">B35&gt;=$H$1</f>
         <v>0</v>
       </c>
       <c r="I35" s="2" t="b">
-        <f>E35&gt;=$I$1</f>
+        <f t="shared" ref="I35:I54" si="4">E35&gt;=$I$1</f>
         <v>0</v>
       </c>
       <c r="J35" s="2" t="b">
-        <f t="shared" ref="J35:J54" si="1">AND(H35,I35)</f>
+        <f t="shared" ref="J35:J54" si="5">AND(H35,I35)</f>
         <v>0</v>
       </c>
     </row>
@@ -2199,15 +2676,15 @@
         <v>9</v>
       </c>
       <c r="H36" s="2" t="b">
-        <f>B36&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="2" t="b">
-        <f>E36&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J36" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2231,15 +2708,15 @@
         <v>7.43</v>
       </c>
       <c r="H37" s="2" t="b">
-        <f>B37&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I37" s="2" t="b">
-        <f>E37&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J37" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2263,15 +2740,15 @@
         <v>7.4</v>
       </c>
       <c r="H38" s="2" t="b">
-        <f>B38&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I38" s="2" t="b">
-        <f>E38&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J38" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2295,15 +2772,15 @@
         <v>7.33</v>
       </c>
       <c r="H39" s="2" t="b">
-        <f>B39&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I39" s="2" t="b">
-        <f>E39&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J39" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2327,15 +2804,15 @@
         <v>7.17</v>
       </c>
       <c r="H40" s="2" t="b">
-        <f>B40&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="2" t="b">
-        <f>E40&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J40" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2359,15 +2836,15 @@
         <v>7</v>
       </c>
       <c r="H41" s="2" t="b">
-        <f>B41&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="2" t="b">
-        <f>E41&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J41" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2391,15 +2868,15 @@
         <v>6.5</v>
       </c>
       <c r="H42" s="2" t="b">
-        <f>B42&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="2" t="b">
-        <f>E42&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J42" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2423,15 +2900,15 @@
         <v>6</v>
       </c>
       <c r="H43" s="2" t="b">
-        <f>B43&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I43" s="2" t="b">
-        <f>E43&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J43" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2455,15 +2932,15 @@
         <v>6</v>
       </c>
       <c r="H44" s="2" t="b">
-        <f>B44&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="2" t="b">
-        <f>E44&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J44" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2487,15 +2964,15 @@
         <v>5</v>
       </c>
       <c r="H45" s="2" t="b">
-        <f>B45&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45" s="2" t="b">
-        <f>E45&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J45" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2519,15 +2996,15 @@
         <v>4</v>
       </c>
       <c r="H46" s="2" t="b">
-        <f>B46&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I46" s="2" t="b">
-        <f>E46&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J46" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2551,15 +3028,15 @@
         <v>4</v>
       </c>
       <c r="H47" s="2" t="b">
-        <f>B47&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I47" s="2" t="b">
-        <f>E47&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J47" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2583,15 +3060,15 @@
         <v>3</v>
       </c>
       <c r="H48" s="2" t="b">
-        <f>B48&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I48" s="2" t="b">
-        <f>E48&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J48" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2615,15 +3092,15 @@
         <v>2</v>
       </c>
       <c r="H49" s="2" t="b">
-        <f>B49&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I49" s="2" t="b">
-        <f>E49&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J49" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2647,15 +3124,15 @@
         <v>1.33</v>
       </c>
       <c r="H50" s="2" t="b">
-        <f>B50&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I50" s="2" t="b">
-        <f>E50&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J50" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2679,15 +3156,15 @@
         <v>1.33</v>
       </c>
       <c r="H51" s="2" t="b">
-        <f>B51&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I51" s="2" t="b">
-        <f>E51&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J51" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2711,15 +3188,15 @@
         <v>0</v>
       </c>
       <c r="H52" s="2" t="b">
-        <f>B52&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I52" s="2" t="b">
-        <f>E52&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J52" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2743,15 +3220,15 @@
         <v>0</v>
       </c>
       <c r="H53" s="2" t="b">
-        <f>B53&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I53" s="2" t="b">
-        <f>E53&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J53" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2775,15 +3252,15 @@
         <v>0</v>
       </c>
       <c r="H54" s="2" t="b">
-        <f>B54&gt;=$H$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I54" s="2" t="b">
-        <f>E54&gt;=$I$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J54" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2907,10 +3384,10 @@
     <sortCondition descending="1" ref="F3:F54"/>
   </sortState>
   <conditionalFormatting sqref="H3:J54">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2918,12 +3395,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2948,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K1" s="3"/>
     </row>
@@ -2988,7 +3465,7 @@
       </c>
       <c r="N2" s="10">
         <f>COUNTIF(K:K,TRUE)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4384,11 +4861,11 @@
       </c>
       <c r="J42" s="2" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -5482,10 +5959,10 @@
     <sortCondition descending="1" ref="G2:G72"/>
   </sortState>
   <conditionalFormatting sqref="I3:K73">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5493,12 +5970,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5522,7 +5999,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K1" s="3"/>
     </row>
@@ -5563,7 +6040,7 @@
       </c>
       <c r="N2" s="10">
         <f>COUNTIF(K:K,TRUE)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -5589,15 +6066,15 @@
         <v>133</v>
       </c>
       <c r="I3" s="2" t="b">
-        <f>C3&gt;=$I$1</f>
+        <f t="shared" ref="I3:I49" si="0">C3&gt;=$I$1</f>
         <v>0</v>
       </c>
       <c r="J3" s="2" t="b">
-        <f>F3&gt;=$J$1</f>
+        <f t="shared" ref="J3:J49" si="1">F3&gt;=$J$1</f>
         <v>0</v>
       </c>
       <c r="K3" s="2" t="b">
-        <f t="shared" ref="K3:K49" si="0">AND(I3,J3)</f>
+        <f t="shared" ref="K3:K49" si="2">AND(I3,J3)</f>
         <v>0</v>
       </c>
     </row>
@@ -5624,15 +6101,15 @@
         <v>133</v>
       </c>
       <c r="I4" s="2" t="b">
-        <f>C4&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="2" t="b">
-        <f>F4&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5659,15 +6136,15 @@
         <v>133</v>
       </c>
       <c r="I5" s="2" t="b">
-        <f>C5&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="2" t="b">
-        <f>F5&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5694,15 +6171,15 @@
         <v>133</v>
       </c>
       <c r="I6" s="2" t="b">
-        <f>C6&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="2" t="b">
-        <f>F6&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5729,15 +6206,15 @@
         <v>133</v>
       </c>
       <c r="I7" s="2" t="b">
-        <f>C7&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7" s="2" t="b">
-        <f>F7&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5764,15 +6241,15 @@
         <v>71.78</v>
       </c>
       <c r="I8" s="2" t="b">
-        <f>C8&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J8" s="2" t="b">
-        <f>F8&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K8" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5799,15 +6276,15 @@
         <v>70</v>
       </c>
       <c r="I9" s="2" t="b">
-        <f>C9&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="2" t="b">
-        <f>F9&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5834,15 +6311,15 @@
         <v>55</v>
       </c>
       <c r="I10" s="2" t="b">
-        <f>C10&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="2" t="b">
-        <f>F10&gt;=$J$1</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K10" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5869,15 +6346,15 @@
         <v>47.75</v>
       </c>
       <c r="I11" s="2" t="b">
-        <f>C11&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="2" t="b">
-        <f>F11&gt;=$J$1</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K11" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5904,15 +6381,15 @@
         <v>45.83</v>
       </c>
       <c r="I12" s="2" t="b">
-        <f>C12&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J12" s="2" t="b">
-        <f>F12&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K12" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5939,15 +6416,15 @@
         <v>36.840000000000003</v>
       </c>
       <c r="I13" s="2" t="b">
-        <f>C13&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J13" s="2" t="b">
-        <f>F13&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K13" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5974,15 +6451,15 @@
         <v>36.67</v>
       </c>
       <c r="I14" s="2" t="b">
-        <f>C14&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" s="2" t="b">
-        <f>F14&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6009,15 +6486,15 @@
         <v>34.15</v>
       </c>
       <c r="I15" s="2" t="b">
-        <f>C15&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J15" s="2" t="b">
-        <f>F15&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K15" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6044,15 +6521,15 @@
         <v>27.67</v>
       </c>
       <c r="I16" s="2" t="b">
-        <f>C16&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="2" t="b">
-        <f>F16&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6079,15 +6556,15 @@
         <v>26.8</v>
       </c>
       <c r="I17" s="2" t="b">
-        <f>C17&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J17" s="2" t="b">
-        <f>F17&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K17" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6114,15 +6591,15 @@
         <v>25.13</v>
       </c>
       <c r="I18" s="2" t="b">
-        <f>C18&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J18" s="2" t="b">
-        <f>F18&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K18" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6149,15 +6626,15 @@
         <v>25</v>
       </c>
       <c r="I19" s="2" t="b">
-        <f>C19&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J19" s="2" t="b">
-        <f>F19&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6184,15 +6661,15 @@
         <v>24.44</v>
       </c>
       <c r="I20" s="2" t="b">
-        <f>C20&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J20" s="2" t="b">
-        <f>F20&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K20" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6219,15 +6696,15 @@
         <v>23</v>
       </c>
       <c r="I21" s="2" t="b">
-        <f>C21&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J21" s="2" t="b">
-        <f>F21&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6254,15 +6731,15 @@
         <v>22.6</v>
       </c>
       <c r="I22" s="2" t="b">
-        <f>C22&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J22" s="2" t="b">
-        <f>F22&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K22" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6289,15 +6766,15 @@
         <v>22.33</v>
       </c>
       <c r="I23" s="2" t="b">
-        <f>C23&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J23" s="2" t="b">
-        <f>F23&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6324,16 +6801,16 @@
         <v>19.8</v>
       </c>
       <c r="I24" s="2" t="b">
-        <f>C24&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J24" s="2" t="b">
-        <f>F24&gt;=$J$1</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K24" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -6359,15 +6836,15 @@
         <v>19.46</v>
       </c>
       <c r="I25" s="2" t="b">
-        <f>C25&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J25" s="2" t="b">
-        <f>F25&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K25" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6394,15 +6871,15 @@
         <v>17.5</v>
       </c>
       <c r="I26" s="2" t="b">
-        <f>C26&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J26" s="2" t="b">
-        <f>F26&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6429,15 +6906,15 @@
         <v>15.67</v>
       </c>
       <c r="I27" s="2" t="b">
-        <f>C27&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J27" s="2" t="b">
-        <f>F27&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6464,15 +6941,15 @@
         <v>15.5</v>
       </c>
       <c r="I28" s="2" t="b">
-        <f>C28&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J28" s="2" t="b">
-        <f>F28&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6499,15 +6976,15 @@
         <v>14</v>
       </c>
       <c r="I29" s="2" t="b">
-        <f>C29&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J29" s="2" t="b">
-        <f>F29&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6534,15 +7011,15 @@
         <v>12.75</v>
       </c>
       <c r="I30" s="2" t="b">
-        <f>C30&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J30" s="2" t="b">
-        <f>F30&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6569,15 +7046,15 @@
         <v>12.5</v>
       </c>
       <c r="I31" s="2" t="b">
-        <f>C31&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J31" s="2" t="b">
-        <f>F31&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6604,15 +7081,15 @@
         <v>11.5</v>
       </c>
       <c r="I32" s="2" t="b">
-        <f>C32&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J32" s="2" t="b">
-        <f>F32&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6639,15 +7116,15 @@
         <v>11</v>
       </c>
       <c r="I33" s="2" t="b">
-        <f>C33&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J33" s="2" t="b">
-        <f>F33&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6674,15 +7151,15 @@
         <v>9.5</v>
       </c>
       <c r="I34" s="2" t="b">
-        <f>C34&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J34" s="2" t="b">
-        <f>F34&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K34" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6709,15 +7186,15 @@
         <v>9</v>
       </c>
       <c r="I35" s="2" t="b">
-        <f>C35&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J35" s="2" t="b">
-        <f>F35&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6744,15 +7221,15 @@
         <v>6</v>
       </c>
       <c r="I36" s="2" t="b">
-        <f>C36&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J36" s="2" t="b">
-        <f>F36&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K36" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6779,15 +7256,15 @@
         <v>5.5</v>
       </c>
       <c r="I37" s="2" t="b">
-        <f>C37&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J37" s="2" t="b">
-        <f>F37&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K37" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6814,15 +7291,15 @@
         <v>5</v>
       </c>
       <c r="I38" s="2" t="b">
-        <f>C38&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J38" s="2" t="b">
-        <f>F38&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K38" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6849,15 +7326,15 @@
         <v>2.67</v>
       </c>
       <c r="I39" s="2" t="b">
-        <f>C39&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J39" s="2" t="b">
-        <f>F39&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6884,15 +7361,15 @@
         <v>2.25</v>
       </c>
       <c r="I40" s="2" t="b">
-        <f>C40&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J40" s="2" t="b">
-        <f>F40&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K40" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6919,15 +7396,15 @@
         <v>2</v>
       </c>
       <c r="I41" s="2" t="b">
-        <f>C41&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J41" s="2" t="b">
-        <f>F41&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K41" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6954,15 +7431,15 @@
         <v>2</v>
       </c>
       <c r="I42" s="2" t="b">
-        <f>C42&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J42" s="2" t="b">
-        <f>F42&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K42" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6989,15 +7466,15 @@
         <v>1.5</v>
       </c>
       <c r="I43" s="2" t="b">
-        <f>C43&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J43" s="2" t="b">
-        <f>F43&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K43" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7024,15 +7501,15 @@
         <v>1.5</v>
       </c>
       <c r="I44" s="2" t="b">
-        <f>C44&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J44" s="2" t="b">
-        <f>F44&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K44" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7059,15 +7536,15 @@
         <v>1.5</v>
       </c>
       <c r="I45" s="2" t="b">
-        <f>C45&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J45" s="2" t="b">
-        <f>F45&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K45" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7094,15 +7571,15 @@
         <v>1</v>
       </c>
       <c r="I46" s="2" t="b">
-        <f>C46&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J46" s="2" t="b">
-        <f>F46&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K46" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7129,15 +7606,15 @@
         <v>0.25</v>
       </c>
       <c r="I47" s="2" t="b">
-        <f>C47&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J47" s="2" t="b">
-        <f>F47&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K47" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7164,15 +7641,15 @@
         <v>0</v>
       </c>
       <c r="I48" s="2" t="b">
-        <f>C48&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J48" s="2" t="b">
-        <f>F48&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K48" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7199,15 +7676,15 @@
         <v>0</v>
       </c>
       <c r="I49" s="2" t="b">
-        <f>C49&gt;=$I$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J49" s="2" t="b">
-        <f>F49&gt;=$J$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K49" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7389,11 +7866,3979 @@
     <sortCondition descending="1" ref="G3:G49"/>
   </sortState>
   <conditionalFormatting sqref="I3:K49">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317919C-4DCF-4DC9-A7EA-71A6D476FFCE}">
+  <dimension ref="A1:N73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="7"/>
+    <col min="2" max="2" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2"/>
+    <col min="12" max="12" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H1" s="3">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3">
+        <v>200</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="55.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="M2" s="10">
+        <f>COUNTIF(J:J,TRUE)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <f t="shared" ref="H3:H49" si="0">B3&gt;=$H$1</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <f t="shared" ref="I3:I49" si="1">E3&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <f t="shared" ref="J3:J49" si="2">AND(H3,I3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="3">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>620</v>
+      </c>
+      <c r="F13" s="3">
+        <v>51.666666666666664</v>
+      </c>
+      <c r="H13" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="3">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>377</v>
+      </c>
+      <c r="F14" s="3">
+        <v>47.125</v>
+      </c>
+      <c r="H14" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="3">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>261</v>
+      </c>
+      <c r="F15" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="H15" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="3">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>630</v>
+      </c>
+      <c r="F16" s="3">
+        <v>39.375</v>
+      </c>
+      <c r="H16" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>113</v>
+      </c>
+      <c r="F17" s="3">
+        <v>37.666666666666664</v>
+      </c>
+      <c r="H17" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3">
+        <v>33</v>
+      </c>
+      <c r="H18" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="3">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>584</v>
+      </c>
+      <c r="F19" s="3">
+        <v>32.444444444444443</v>
+      </c>
+      <c r="H19" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="3">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>280</v>
+      </c>
+      <c r="F20" s="3">
+        <v>31.111111111111111</v>
+      </c>
+      <c r="H20" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="3">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>198</v>
+      </c>
+      <c r="F21" s="3">
+        <v>28.285714285714285</v>
+      </c>
+      <c r="H21" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="3">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>248</v>
+      </c>
+      <c r="F22" s="3">
+        <v>27.555555555555557</v>
+      </c>
+      <c r="H22" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="3">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>220</v>
+      </c>
+      <c r="F23" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="H23" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>52</v>
+      </c>
+      <c r="F24" s="3">
+        <v>26</v>
+      </c>
+      <c r="H24" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>156</v>
+      </c>
+      <c r="F25" s="3">
+        <v>26</v>
+      </c>
+      <c r="H25" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="3">
+        <v>13</v>
+      </c>
+      <c r="C26" s="3">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>308</v>
+      </c>
+      <c r="F26" s="3">
+        <v>23.692307692307693</v>
+      </c>
+      <c r="H26" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>42</v>
+      </c>
+      <c r="F27" s="3">
+        <v>21</v>
+      </c>
+      <c r="H27" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="3">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>121</v>
+      </c>
+      <c r="F28" s="3">
+        <v>20.166666666666668</v>
+      </c>
+      <c r="H28" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>19</v>
+      </c>
+      <c r="F29" s="3">
+        <v>19</v>
+      </c>
+      <c r="H29" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="3">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3">
+        <v>102</v>
+      </c>
+      <c r="F30" s="3">
+        <v>17</v>
+      </c>
+      <c r="H30" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="3">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>109</v>
+      </c>
+      <c r="F31" s="3">
+        <v>15.571428571428571</v>
+      </c>
+      <c r="H31" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="3">
+        <v>21</v>
+      </c>
+      <c r="C32" s="3">
+        <v>21</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>263</v>
+      </c>
+      <c r="F32" s="3">
+        <v>15.470588235294118</v>
+      </c>
+      <c r="H32" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="3">
+        <v>17</v>
+      </c>
+      <c r="C33" s="3">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>195</v>
+      </c>
+      <c r="F33" s="3">
+        <v>15</v>
+      </c>
+      <c r="H33" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>29</v>
+      </c>
+      <c r="F34" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="H34" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3">
+        <v>14</v>
+      </c>
+      <c r="H35" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>42</v>
+      </c>
+      <c r="F36" s="3">
+        <v>14</v>
+      </c>
+      <c r="H36" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="3">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3</v>
+      </c>
+      <c r="E37" s="3">
+        <v>14</v>
+      </c>
+      <c r="F37" s="3">
+        <v>14</v>
+      </c>
+      <c r="H37" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="3">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3">
+        <v>8</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>112</v>
+      </c>
+      <c r="F38" s="3">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" s="3">
+        <v>15</v>
+      </c>
+      <c r="C39" s="3">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>196</v>
+      </c>
+      <c r="F39" s="3">
+        <v>14</v>
+      </c>
+      <c r="H39" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B40" s="3">
+        <v>13</v>
+      </c>
+      <c r="C40" s="3">
+        <v>11</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>114</v>
+      </c>
+      <c r="F40" s="3">
+        <v>12.666666666666666</v>
+      </c>
+      <c r="H40" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" s="3">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>37</v>
+      </c>
+      <c r="F41" s="3">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="H41" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="3">
+        <v>16</v>
+      </c>
+      <c r="C42" s="3">
+        <v>15</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3">
+        <v>158</v>
+      </c>
+      <c r="F42" s="3">
+        <v>12.153846153846153</v>
+      </c>
+      <c r="H42" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I42" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="3">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>32</v>
+      </c>
+      <c r="F43" s="3">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="H43" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="3">
+        <v>15</v>
+      </c>
+      <c r="C44" s="3">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3">
+        <v>101</v>
+      </c>
+      <c r="F44" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="H44" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I44" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>30</v>
+      </c>
+      <c r="F45" s="3">
+        <v>10</v>
+      </c>
+      <c r="H45" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="3">
+        <v>19</v>
+      </c>
+      <c r="C46" s="3">
+        <v>10</v>
+      </c>
+      <c r="D46" s="3">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>46</v>
+      </c>
+      <c r="F46" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H46" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="3">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>51</v>
+      </c>
+      <c r="F47" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="H47" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B48" s="3">
+        <v>14</v>
+      </c>
+      <c r="C48" s="3">
+        <v>14</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>110</v>
+      </c>
+      <c r="F48" s="3">
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="H48" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I48" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="3">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>19</v>
+      </c>
+      <c r="F49" s="3">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="H49" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I49" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="3">
+        <v>8</v>
+      </c>
+      <c r="C50" s="3">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>15</v>
+      </c>
+      <c r="F50" s="3">
+        <v>5</v>
+      </c>
+      <c r="H50" s="2" t="b">
+        <f t="shared" ref="H50:H61" si="3">B50&gt;=$H$1</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="b">
+        <f t="shared" ref="I50:I61" si="4">E50&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="b">
+        <f t="shared" ref="J50:J61" si="5">AND(H50,I50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B51" s="3">
+        <v>16</v>
+      </c>
+      <c r="C51" s="3">
+        <v>7</v>
+      </c>
+      <c r="D51" s="3">
+        <v>4</v>
+      </c>
+      <c r="E51" s="3">
+        <v>13</v>
+      </c>
+      <c r="F51" s="3">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="H51" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I51" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="3">
+        <v>13</v>
+      </c>
+      <c r="C52" s="3">
+        <v>10</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3">
+        <v>30</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H52" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3</v>
+      </c>
+      <c r="F53" s="3">
+        <v>3</v>
+      </c>
+      <c r="H53" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" s="3">
+        <v>11</v>
+      </c>
+      <c r="C54" s="3">
+        <v>8</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>22</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="H54" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I54" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="H55" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" s="3">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>3</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H56" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H57" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H58" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" s="3">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" s="3">
+        <v>8</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:J49" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <conditionalFormatting sqref="H3:J61">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE0C309-1F3D-4DA8-A7A7-36A23832AD7D}">
+  <dimension ref="A1:N73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="7"/>
+    <col min="2" max="2" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2"/>
+    <col min="12" max="12" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H1" s="3">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3">
+        <v>200</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="55.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="M2" s="10">
+        <f>COUNTIF(J:J,TRUE)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>13</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <f t="shared" ref="H3:H55" si="0">B3&gt;=$H$1</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <f t="shared" ref="I3:I55" si="1">E3&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <f t="shared" ref="J3:J55" si="2">AND(H3,I3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>166</v>
+      </c>
+      <c r="F5" s="13">
+        <v>55.333333333333336</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="11">
+        <v>15</v>
+      </c>
+      <c r="C6" s="11">
+        <v>13</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>483</v>
+      </c>
+      <c r="F6" s="13">
+        <v>48.3</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>118</v>
+      </c>
+      <c r="F7" s="13">
+        <v>39.333333333333336</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="11">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11">
+        <v>12</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>354</v>
+      </c>
+      <c r="F8" s="13">
+        <v>35.4</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="11">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>259</v>
+      </c>
+      <c r="F9" s="13">
+        <v>32.375</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="11">
+        <v>23</v>
+      </c>
+      <c r="C10" s="11">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11">
+        <v>3</v>
+      </c>
+      <c r="E10" s="12">
+        <v>535</v>
+      </c>
+      <c r="F10" s="13">
+        <v>28.157894736842106</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="11">
+        <v>14</v>
+      </c>
+      <c r="C11" s="11">
+        <v>11</v>
+      </c>
+      <c r="D11" s="11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="12">
+        <v>215</v>
+      </c>
+      <c r="F11" s="13">
+        <v>26.875</v>
+      </c>
+      <c r="H11" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="11">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11">
+        <v>8</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>158</v>
+      </c>
+      <c r="F12" s="13">
+        <v>26.333333333333332</v>
+      </c>
+      <c r="H12" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>25</v>
+      </c>
+      <c r="F13" s="13">
+        <v>25</v>
+      </c>
+      <c r="H13" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="11">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>208</v>
+      </c>
+      <c r="F14" s="13">
+        <v>23.111111111111111</v>
+      </c>
+      <c r="H14" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="11">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11">
+        <v>12</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <v>239</v>
+      </c>
+      <c r="F15" s="13">
+        <v>21.727272727272727</v>
+      </c>
+      <c r="H15" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="11">
+        <v>13</v>
+      </c>
+      <c r="C16" s="11">
+        <v>13</v>
+      </c>
+      <c r="D16" s="11">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>201</v>
+      </c>
+      <c r="F16" s="13">
+        <v>18.272727272727273</v>
+      </c>
+      <c r="H16" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="11">
+        <v>19</v>
+      </c>
+      <c r="C17" s="11">
+        <v>16</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
+        <v>260</v>
+      </c>
+      <c r="F17" s="13">
+        <v>17.333333333333332</v>
+      </c>
+      <c r="H17" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <v>17</v>
+      </c>
+      <c r="F18" s="13">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="11">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11">
+        <v>4</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>66</v>
+      </c>
+      <c r="F19" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="H19" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>15</v>
+      </c>
+      <c r="F20" s="13">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="11">
+        <v>4</v>
+      </c>
+      <c r="C21" s="11">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12">
+        <v>14</v>
+      </c>
+      <c r="F21" s="13">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="11">
+        <v>10</v>
+      </c>
+      <c r="C22" s="11">
+        <v>10</v>
+      </c>
+      <c r="D22" s="11">
+        <v>2</v>
+      </c>
+      <c r="E22" s="12">
+        <v>108</v>
+      </c>
+      <c r="F22" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="H22" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" s="11">
+        <v>6</v>
+      </c>
+      <c r="C23" s="11">
+        <v>5</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12">
+        <v>49</v>
+      </c>
+      <c r="F23" s="13">
+        <v>12.25</v>
+      </c>
+      <c r="H23" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>11</v>
+      </c>
+      <c r="F24" s="13">
+        <v>11</v>
+      </c>
+      <c r="H24" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" s="11">
+        <v>10</v>
+      </c>
+      <c r="C25" s="11">
+        <v>10</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12">
+        <v>96</v>
+      </c>
+      <c r="F25" s="13">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="H25" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <v>10</v>
+      </c>
+      <c r="F26" s="13">
+        <v>10</v>
+      </c>
+      <c r="H26" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="11">
+        <v>16</v>
+      </c>
+      <c r="C27" s="11">
+        <v>9</v>
+      </c>
+      <c r="D27" s="11">
+        <v>2</v>
+      </c>
+      <c r="E27" s="12">
+        <v>67</v>
+      </c>
+      <c r="F27" s="13">
+        <v>9.5714285714285712</v>
+      </c>
+      <c r="H27" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" s="11">
+        <v>13</v>
+      </c>
+      <c r="C28" s="11">
+        <v>10</v>
+      </c>
+      <c r="D28" s="11">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12">
+        <v>73</v>
+      </c>
+      <c r="F28" s="13">
+        <v>9.125</v>
+      </c>
+      <c r="H28" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="11">
+        <v>20</v>
+      </c>
+      <c r="C29" s="11">
+        <v>19</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12">
+        <v>163</v>
+      </c>
+      <c r="F29" s="13">
+        <v>9.0555555555555554</v>
+      </c>
+      <c r="H29" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" s="11">
+        <v>3</v>
+      </c>
+      <c r="C30" s="11">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>27</v>
+      </c>
+      <c r="F30" s="13">
+        <v>9</v>
+      </c>
+      <c r="H30" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="11">
+        <v>1</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <v>8</v>
+      </c>
+      <c r="F31" s="13">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="11">
+        <v>16</v>
+      </c>
+      <c r="C32" s="11">
+        <v>10</v>
+      </c>
+      <c r="D32" s="11">
+        <v>2</v>
+      </c>
+      <c r="E32" s="12">
+        <v>63</v>
+      </c>
+      <c r="F32" s="13">
+        <v>7.875</v>
+      </c>
+      <c r="H32" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" s="11">
+        <v>12</v>
+      </c>
+      <c r="C33" s="11">
+        <v>11</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12">
+        <v>78</v>
+      </c>
+      <c r="F33" s="13">
+        <v>7.8</v>
+      </c>
+      <c r="H33" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" s="11">
+        <v>2</v>
+      </c>
+      <c r="C34" s="11">
+        <v>2</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>15</v>
+      </c>
+      <c r="F34" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="H34" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="11">
+        <v>16</v>
+      </c>
+      <c r="C35" s="11">
+        <v>16</v>
+      </c>
+      <c r="D35" s="11">
+        <v>3</v>
+      </c>
+      <c r="E35" s="12">
+        <v>89</v>
+      </c>
+      <c r="F35" s="13">
+        <v>6.8461538461538458</v>
+      </c>
+      <c r="H35" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="11">
+        <v>5</v>
+      </c>
+      <c r="C36" s="11">
+        <v>5</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <v>29</v>
+      </c>
+      <c r="F36" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="H36" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" s="11">
+        <v>17</v>
+      </c>
+      <c r="C37" s="11">
+        <v>14</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <v>80</v>
+      </c>
+      <c r="F37" s="13">
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="H37" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" s="11">
+        <v>19</v>
+      </c>
+      <c r="C38" s="11">
+        <v>9</v>
+      </c>
+      <c r="D38" s="11">
+        <v>3</v>
+      </c>
+      <c r="E38" s="12">
+        <v>33</v>
+      </c>
+      <c r="F38" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="H38" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="11">
+        <v>16</v>
+      </c>
+      <c r="C39" s="11">
+        <v>11</v>
+      </c>
+      <c r="D39" s="11">
+        <v>4</v>
+      </c>
+      <c r="E39" s="12">
+        <v>36</v>
+      </c>
+      <c r="F39" s="13">
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="H39" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="11">
+        <v>10</v>
+      </c>
+      <c r="C40" s="11">
+        <v>9</v>
+      </c>
+      <c r="D40" s="11">
+        <v>2</v>
+      </c>
+      <c r="E40" s="12">
+        <v>36</v>
+      </c>
+      <c r="F40" s="13">
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="H40" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B41" s="11">
+        <v>15</v>
+      </c>
+      <c r="C41" s="11">
+        <v>14</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12">
+        <v>69</v>
+      </c>
+      <c r="F41" s="13">
+        <v>4.9285714285714288</v>
+      </c>
+      <c r="H41" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B42" s="11">
+        <v>7</v>
+      </c>
+      <c r="C42" s="11">
+        <v>3</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12">
+        <v>13</v>
+      </c>
+      <c r="F42" s="13">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="H42" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="11">
+        <v>10</v>
+      </c>
+      <c r="C43" s="11">
+        <v>10</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0</v>
+      </c>
+      <c r="E43" s="12">
+        <v>40</v>
+      </c>
+      <c r="F43" s="13">
+        <v>4</v>
+      </c>
+      <c r="H43" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="11">
+        <v>7</v>
+      </c>
+      <c r="C44" s="11">
+        <v>5</v>
+      </c>
+      <c r="D44" s="11">
+        <v>3</v>
+      </c>
+      <c r="E44" s="12">
+        <v>7</v>
+      </c>
+      <c r="F44" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="H44" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="11">
+        <v>7</v>
+      </c>
+      <c r="C45" s="11">
+        <v>5</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="E45" s="12">
+        <v>17</v>
+      </c>
+      <c r="F45" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="H45" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" s="11">
+        <v>4</v>
+      </c>
+      <c r="C46" s="11">
+        <v>3</v>
+      </c>
+      <c r="D46" s="11">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12">
+        <v>6</v>
+      </c>
+      <c r="F46" s="13">
+        <v>3</v>
+      </c>
+      <c r="H46" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" s="11">
+        <v>1</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12">
+        <v>2</v>
+      </c>
+      <c r="F47" s="13">
+        <v>2</v>
+      </c>
+      <c r="H47" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" s="11">
+        <v>2</v>
+      </c>
+      <c r="C48" s="11">
+        <v>2</v>
+      </c>
+      <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12">
+        <v>3</v>
+      </c>
+      <c r="F48" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="H48" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B49" s="11">
+        <v>1</v>
+      </c>
+      <c r="C49" s="11">
+        <v>1</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12">
+        <v>1</v>
+      </c>
+      <c r="F49" s="13">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="11">
+        <v>10</v>
+      </c>
+      <c r="C50" s="11">
+        <v>2</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12">
+        <v>1</v>
+      </c>
+      <c r="F50" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H50" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I50" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51" s="11">
+        <v>5</v>
+      </c>
+      <c r="C51" s="11">
+        <v>3</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52" s="11">
+        <v>1</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" s="11">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0</v>
+      </c>
+      <c r="F52" s="13">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="11">
+        <v>1</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" s="11">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0</v>
+      </c>
+      <c r="F53" s="13">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" s="11">
+        <v>1</v>
+      </c>
+      <c r="C54" s="11">
+        <v>1</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0</v>
+      </c>
+      <c r="F54" s="13">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B55" s="11">
+        <v>1</v>
+      </c>
+      <c r="C55" s="11">
+        <v>1</v>
+      </c>
+      <c r="D55" s="11">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:J49" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <conditionalFormatting sqref="H3:J55">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
